--- a/docs/StructureDefinition-PhrMedication.xlsx
+++ b/docs/StructureDefinition-PhrMedication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T09:31:19-05:00</t>
+    <t>2022-03-31T10:13:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PhrMedication.xlsx
+++ b/docs/StructureDefinition-PhrMedication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T10:13:20-05:00</t>
+    <t>2022-03-31T10:22:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PhrMedication.xlsx
+++ b/docs/StructureDefinition-PhrMedication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T10:22:20-05:00</t>
+    <t>2022-03-31T10:46:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PhrMedication.xlsx
+++ b/docs/StructureDefinition-PhrMedication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T10:46:36-05:00</t>
+    <t>2022-03-31T11:03:39-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PhrMedication.xlsx
+++ b/docs/StructureDefinition-PhrMedication.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T00:36:03-05:00</t>
+    <t>2022-05-18T10:08:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PhrMedication.xlsx
+++ b/docs/StructureDefinition-PhrMedication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T10:08:48-05:00</t>
+    <t>2022-05-18T10:36:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PhrMedication.xlsx
+++ b/docs/StructureDefinition-PhrMedication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T10:36:35-05:00</t>
+    <t>2022-08-15T13:55:23-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
